--- a/arbitrarilty-large-data/combinator tables.xlsx
+++ b/arbitrarilty-large-data/combinator tables.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jheydt\Documents\Computer Science\Programming\how-to-design-programs\arbitrarilty-large-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5C96AFB-EDB8-413E-9468-42941FF5618E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58367701-BC26-4B04-B5EA-3A148D295A5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" activeTab="2" xr2:uid="{3C7C629B-F91A-456B-8610-06EBDFB982EE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" firstSheet="1" activeTab="6" xr2:uid="{3C7C629B-F91A-456B-8610-06EBDFB982EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="139" sheetId="2" r:id="rId2"/>
+    <sheet name="140" sheetId="3" r:id="rId3"/>
+    <sheet name="141" sheetId="4" r:id="rId4"/>
+    <sheet name="142" sheetId="5" r:id="rId5"/>
+    <sheet name="143" sheetId="6" r:id="rId6"/>
+    <sheet name="145" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>loa</t>
   </si>
@@ -68,6 +72,9 @@
     <t>(cons 5 '())</t>
   </si>
   <si>
+    <t>(cons 3 '())</t>
+  </si>
+  <si>
     <t>(cons 100 (cons 5 '()))</t>
   </si>
   <si>
@@ -132,6 +139,138 @@
   </si>
   <si>
     <t>(cons #false (cons #true '()))</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>(first l)</t>
+  </si>
+  <si>
+    <t>(rest l)</t>
+  </si>
+  <si>
+    <t>(cat (rest l))</t>
+  </si>
+  <si>
+    <t>(cat l)</t>
+  </si>
+  <si>
+    <t>(cons "a" (cons "b" '()))</t>
+  </si>
+  <si>
+    <t>(cons "ab" (cons "cd" (cons "ef" '())))</t>
+  </si>
+  <si>
+    <t>"a"</t>
+  </si>
+  <si>
+    <t>"ab"</t>
+  </si>
+  <si>
+    <t>"b"</t>
+  </si>
+  <si>
+    <t>(cons "b" '())</t>
+  </si>
+  <si>
+    <t>(cons "cd " (cons "ef" '()))</t>
+  </si>
+  <si>
+    <t>"cdef"</t>
+  </si>
+  <si>
+    <t>"abcdef"</t>
+  </si>
+  <si>
+    <t>loi</t>
+  </si>
+  <si>
+    <t>(first loi)</t>
+  </si>
+  <si>
+    <t>(rest loi)</t>
+  </si>
+  <si>
+    <t>(ill-sized? Loi)</t>
+  </si>
+  <si>
+    <t>(ill-sized? (rest loi))</t>
+  </si>
+  <si>
+    <t>(cons MTSCN '())</t>
+  </si>
+  <si>
+    <t>(cons SQR1 (cons REC '()))</t>
+  </si>
+  <si>
+    <t>(cons SQR1 (cons SQR2 '()))</t>
+  </si>
+  <si>
+    <t>MTSCN</t>
+  </si>
+  <si>
+    <t>SQR1</t>
+  </si>
+  <si>
+    <t>(cons REC '())</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>(cons SQR2 '())</t>
+  </si>
+  <si>
+    <t>REC</t>
+  </si>
+  <si>
+    <t>a lot</t>
+  </si>
+  <si>
+    <t>(cons 1 (cons 2 (cons 3 '())))</t>
+  </si>
+  <si>
+    <t>(first a lot)</t>
+  </si>
+  <si>
+    <t>(rest a lot)</t>
+  </si>
+  <si>
+    <t>(cons 2 (cons 3 '()))</t>
+  </si>
+  <si>
+    <t>(how-many (rest a lot))</t>
+  </si>
+  <si>
+    <t>(how-many a lot)</t>
+  </si>
+  <si>
+    <t>(cons 5 (cons 3 '()))</t>
+  </si>
+  <si>
+    <t>(cons  4 '())</t>
+  </si>
+  <si>
+    <t>(cons 3 (cons 9 (cons 2 (cons 1 '()))))</t>
+  </si>
+  <si>
+    <t>(cons 9 (cons 2 (cons 1 '())))</t>
+  </si>
+  <si>
+    <t>(first 1)</t>
+  </si>
+  <si>
+    <t>(sorted&gt;l? (rest l))</t>
+  </si>
+  <si>
+    <t>(sorted&gt;? l)</t>
+  </si>
+  <si>
+    <t>(cons 3 (cons 2 '()))</t>
+  </si>
+  <si>
+    <t>(cons 0 (cons 3 (cons 2 '())))</t>
   </si>
 </sst>
 </file>
@@ -539,7 +678,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -579,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>105</v>
@@ -590,13 +729,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>310</v>
@@ -615,7 +754,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,13 +777,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -656,30 +795,30 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>-1</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -688,38 +827,38 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>-5</v>
@@ -728,13 +867,13 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DFA066-2DD9-492D-9194-8B015CFB4506}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -761,27 +900,382 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C293B39-EDE8-4C0D-9B08-63909B10EA56}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD35DF-39AD-4338-8D2C-9FFD4294900B}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8295DD1A-0453-469E-B921-65911D7F19A0}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFD75A4-27F9-4659-A6AC-8CAC7CCA720B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -789,27 +1283,30 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
